--- a/Hanbell-KPI/web/rpt/个人工作评分表模板.xlsx
+++ b/Hanbell-KPI/web/rpt/个人工作评分表模板.xlsx
@@ -12,12 +12,25 @@
     <sheet name="Q3" sheetId="6" r:id="rId3"/>
     <sheet name="Q4" sheetId="5" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="9">
   <si>
     <t>员工季度考核评分表模板</t>
   </si>
@@ -34,7 +47,17 @@
     <t>目标</t>
   </si>
   <si>
+    <t>考核标准</t>
+  </si>
+  <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>小项权重(</t>
     </r>
     <r>
@@ -68,7 +91,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -467,7 +490,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -522,6 +545,32 @@
       <top style="thin">
         <color auto="1"/>
       </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
@@ -651,7 +700,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -663,34 +712,34 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -775,7 +824,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -791,6 +840,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -806,7 +858,13 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1368,126 +1426,138 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:D1"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="11.75" customWidth="1"/>
-    <col min="2" max="3" width="64.375" customWidth="1"/>
-    <col min="4" max="4" width="14.8416666666667" customWidth="1"/>
+    <col min="2" max="4" width="64.375" customWidth="1"/>
+    <col min="5" max="5" width="14.8416666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="30" customHeight="1" spans="1:4">
+    <row r="1" s="1" customFormat="1" ht="30" customHeight="1" spans="1:5">
       <c r="A1" s="3"/>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
       <c r="D1" s="5"/>
-    </row>
-    <row r="2" s="1" customFormat="1" ht="30" customHeight="1" spans="1:4">
-      <c r="A2" s="6" t="s">
+      <c r="E1" s="6"/>
+    </row>
+    <row r="2" s="1" customFormat="1" ht="30" customHeight="1" spans="1:5">
+      <c r="A2" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-    </row>
-    <row r="3" s="2" customFormat="1" ht="35.25" customHeight="1" spans="1:4">
-      <c r="A3" s="7" t="s">
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+    </row>
+    <row r="3" s="2" customFormat="1" ht="35.25" customHeight="1" spans="1:5">
+      <c r="A3" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-    </row>
-    <row r="4" s="1" customFormat="1" ht="24" customHeight="1" spans="1:4">
-      <c r="A4" s="8" t="s">
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+    </row>
+    <row r="4" s="1" customFormat="1" ht="24" customHeight="1" spans="1:5">
+      <c r="A4" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="D4" s="11" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" s="1" customFormat="1" ht="30.75" customHeight="1" spans="1:4">
-      <c r="A5" s="8"/>
-      <c r="B5" s="9"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-    </row>
-    <row r="6" s="1" customFormat="1" ht="49.5" customHeight="1" spans="1:4">
-      <c r="A6" s="11">
+      <c r="E4" s="12" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" s="1" customFormat="1" ht="30.75" customHeight="1" spans="1:5">
+      <c r="A5" s="9"/>
+      <c r="B5" s="10"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="10"/>
+    </row>
+    <row r="6" s="1" customFormat="1" ht="49.5" customHeight="1" spans="1:5">
+      <c r="A6" s="14">
         <v>1</v>
       </c>
-      <c r="B6" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="12" t="s">
+      <c r="B6" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="13">
+      <c r="C6" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="15"/>
+      <c r="E6" s="16">
         <v>0.2</v>
       </c>
     </row>
-    <row r="7" s="1" customFormat="1" ht="59.1" customHeight="1" spans="1:4">
-      <c r="A7" s="11">
+    <row r="7" s="1" customFormat="1" ht="59.1" customHeight="1" spans="1:5">
+      <c r="A7" s="14">
         <v>2</v>
       </c>
-      <c r="B7" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="12" t="s">
+      <c r="B7" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="13">
+      <c r="C7" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="15"/>
+      <c r="E7" s="16">
         <v>0.3</v>
       </c>
     </row>
-    <row r="8" s="1" customFormat="1" ht="49.5" customHeight="1" spans="1:4">
-      <c r="A8" s="11">
+    <row r="8" s="1" customFormat="1" ht="49.5" customHeight="1" spans="1:5">
+      <c r="A8" s="14">
         <v>3</v>
       </c>
-      <c r="B8" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="12" t="s">
+      <c r="B8" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="13">
+      <c r="C8" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="15"/>
+      <c r="E8" s="16">
         <v>0.3</v>
       </c>
     </row>
-    <row r="9" s="1" customFormat="1" ht="49.5" customHeight="1" spans="1:4">
-      <c r="A9" s="11">
+    <row r="9" s="1" customFormat="1" ht="49.5" customHeight="1" spans="1:5">
+      <c r="A9" s="14">
         <v>4</v>
       </c>
-      <c r="B9" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" s="12" t="s">
+      <c r="B9" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="13">
+      <c r="C9" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="15"/>
+      <c r="E9" s="16">
         <v>0.2</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A3:D3"/>
+  <mergeCells count="8">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="A3:E3"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="C4:C5"/>
     <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:E5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
@@ -1498,126 +1568,138 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="D4" sqref="D4:D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="11.75" customWidth="1"/>
-    <col min="2" max="3" width="64.375" customWidth="1"/>
-    <col min="4" max="4" width="14.8416666666667" customWidth="1"/>
+    <col min="2" max="4" width="64.375" customWidth="1"/>
+    <col min="5" max="5" width="14.8416666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="30" customHeight="1" spans="1:4">
+    <row r="1" s="1" customFormat="1" ht="30" customHeight="1" spans="1:5">
       <c r="A1" s="3"/>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
       <c r="D1" s="5"/>
-    </row>
-    <row r="2" s="1" customFormat="1" ht="30" customHeight="1" spans="1:4">
-      <c r="A2" s="6" t="s">
+      <c r="E1" s="6"/>
+    </row>
+    <row r="2" s="1" customFormat="1" ht="30" customHeight="1" spans="1:5">
+      <c r="A2" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-    </row>
-    <row r="3" s="2" customFormat="1" ht="35.25" customHeight="1" spans="1:4">
-      <c r="A3" s="7" t="s">
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+    </row>
+    <row r="3" s="2" customFormat="1" ht="35.25" customHeight="1" spans="1:5">
+      <c r="A3" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-    </row>
-    <row r="4" s="1" customFormat="1" ht="24" customHeight="1" spans="1:4">
-      <c r="A4" s="8" t="s">
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+    </row>
+    <row r="4" s="1" customFormat="1" ht="24" customHeight="1" spans="1:5">
+      <c r="A4" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="D4" s="11" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" s="1" customFormat="1" ht="30.75" customHeight="1" spans="1:4">
-      <c r="A5" s="8"/>
-      <c r="B5" s="9"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-    </row>
-    <row r="6" s="1" customFormat="1" ht="49.5" customHeight="1" spans="1:4">
-      <c r="A6" s="11">
+      <c r="E4" s="12" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" s="1" customFormat="1" ht="30.75" customHeight="1" spans="1:5">
+      <c r="A5" s="9"/>
+      <c r="B5" s="10"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="10"/>
+    </row>
+    <row r="6" s="1" customFormat="1" ht="49.5" customHeight="1" spans="1:5">
+      <c r="A6" s="14">
         <v>1</v>
       </c>
-      <c r="B6" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="12" t="s">
+      <c r="B6" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="13">
+      <c r="C6" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="15"/>
+      <c r="E6" s="16">
         <v>0.2</v>
       </c>
     </row>
-    <row r="7" s="1" customFormat="1" ht="59.1" customHeight="1" spans="1:4">
-      <c r="A7" s="11">
+    <row r="7" s="1" customFormat="1" ht="59.1" customHeight="1" spans="1:5">
+      <c r="A7" s="14">
         <v>2</v>
       </c>
-      <c r="B7" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="12" t="s">
+      <c r="B7" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="13">
+      <c r="C7" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="15"/>
+      <c r="E7" s="16">
         <v>0.3</v>
       </c>
     </row>
-    <row r="8" s="1" customFormat="1" ht="49.5" customHeight="1" spans="1:4">
-      <c r="A8" s="11">
+    <row r="8" s="1" customFormat="1" ht="49.5" customHeight="1" spans="1:5">
+      <c r="A8" s="14">
         <v>3</v>
       </c>
-      <c r="B8" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="12" t="s">
+      <c r="B8" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="13">
+      <c r="C8" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="15"/>
+      <c r="E8" s="16">
         <v>0.3</v>
       </c>
     </row>
-    <row r="9" s="1" customFormat="1" ht="49.5" customHeight="1" spans="1:4">
-      <c r="A9" s="11">
+    <row r="9" s="1" customFormat="1" ht="49.5" customHeight="1" spans="1:5">
+      <c r="A9" s="14">
         <v>4</v>
       </c>
-      <c r="B9" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" s="12" t="s">
+      <c r="B9" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="13">
+      <c r="C9" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="15"/>
+      <c r="E9" s="16">
         <v>0.2</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A3:D3"/>
+  <mergeCells count="8">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="A3:E3"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="C4:C5"/>
     <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:E5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
@@ -1628,126 +1710,138 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="D4" sqref="D4:D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="11.75" customWidth="1"/>
-    <col min="2" max="3" width="64.375" customWidth="1"/>
-    <col min="4" max="4" width="14.8416666666667" customWidth="1"/>
+    <col min="2" max="4" width="64.375" customWidth="1"/>
+    <col min="5" max="5" width="14.8416666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="30" customHeight="1" spans="1:4">
+    <row r="1" s="1" customFormat="1" ht="30" customHeight="1" spans="1:5">
       <c r="A1" s="3"/>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
       <c r="D1" s="5"/>
-    </row>
-    <row r="2" s="1" customFormat="1" ht="30" customHeight="1" spans="1:4">
-      <c r="A2" s="6" t="s">
+      <c r="E1" s="6"/>
+    </row>
+    <row r="2" s="1" customFormat="1" ht="30" customHeight="1" spans="1:5">
+      <c r="A2" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-    </row>
-    <row r="3" s="2" customFormat="1" ht="35.25" customHeight="1" spans="1:4">
-      <c r="A3" s="7" t="s">
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+    </row>
+    <row r="3" s="2" customFormat="1" ht="35.25" customHeight="1" spans="1:5">
+      <c r="A3" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-    </row>
-    <row r="4" s="1" customFormat="1" ht="24" customHeight="1" spans="1:4">
-      <c r="A4" s="8" t="s">
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+    </row>
+    <row r="4" s="1" customFormat="1" ht="24" customHeight="1" spans="1:5">
+      <c r="A4" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="D4" s="11" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" s="1" customFormat="1" ht="30.75" customHeight="1" spans="1:4">
-      <c r="A5" s="8"/>
-      <c r="B5" s="9"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-    </row>
-    <row r="6" s="1" customFormat="1" ht="49.5" customHeight="1" spans="1:4">
-      <c r="A6" s="11">
+      <c r="E4" s="12" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" s="1" customFormat="1" ht="30.75" customHeight="1" spans="1:5">
+      <c r="A5" s="9"/>
+      <c r="B5" s="10"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="10"/>
+    </row>
+    <row r="6" s="1" customFormat="1" ht="49.5" customHeight="1" spans="1:5">
+      <c r="A6" s="14">
         <v>1</v>
       </c>
-      <c r="B6" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="12" t="s">
+      <c r="B6" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="13">
+      <c r="C6" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="15"/>
+      <c r="E6" s="16">
         <v>0.2</v>
       </c>
     </row>
-    <row r="7" s="1" customFormat="1" ht="59.1" customHeight="1" spans="1:4">
-      <c r="A7" s="11">
+    <row r="7" s="1" customFormat="1" ht="59.1" customHeight="1" spans="1:5">
+      <c r="A7" s="14">
         <v>2</v>
       </c>
-      <c r="B7" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="12" t="s">
+      <c r="B7" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="13">
+      <c r="C7" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="15"/>
+      <c r="E7" s="16">
         <v>0.3</v>
       </c>
     </row>
-    <row r="8" s="1" customFormat="1" ht="49.5" customHeight="1" spans="1:4">
-      <c r="A8" s="11">
+    <row r="8" s="1" customFormat="1" ht="49.5" customHeight="1" spans="1:5">
+      <c r="A8" s="14">
         <v>3</v>
       </c>
-      <c r="B8" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="12" t="s">
+      <c r="B8" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="13">
+      <c r="C8" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="15"/>
+      <c r="E8" s="16">
         <v>0.3</v>
       </c>
     </row>
-    <row r="9" s="1" customFormat="1" ht="49.5" customHeight="1" spans="1:4">
-      <c r="A9" s="11">
+    <row r="9" s="1" customFormat="1" ht="49.5" customHeight="1" spans="1:5">
+      <c r="A9" s="14">
         <v>4</v>
       </c>
-      <c r="B9" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" s="12" t="s">
+      <c r="B9" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="13">
+      <c r="C9" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="15"/>
+      <c r="E9" s="16">
         <v>0.2</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A3:D3"/>
+  <mergeCells count="8">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="A3:E3"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="C4:C5"/>
     <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:E5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
@@ -1758,126 +1852,138 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:D1"/>
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="11.75" customWidth="1"/>
-    <col min="2" max="3" width="64.375" customWidth="1"/>
-    <col min="4" max="4" width="14.8416666666667" customWidth="1"/>
+    <col min="2" max="4" width="64.375" customWidth="1"/>
+    <col min="5" max="5" width="14.8416666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="30" customHeight="1" spans="1:4">
+    <row r="1" s="1" customFormat="1" ht="30" customHeight="1" spans="1:5">
       <c r="A1" s="3"/>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
       <c r="D1" s="5"/>
-    </row>
-    <row r="2" s="1" customFormat="1" ht="30" customHeight="1" spans="1:4">
-      <c r="A2" s="6" t="s">
+      <c r="E1" s="6"/>
+    </row>
+    <row r="2" s="1" customFormat="1" ht="30" customHeight="1" spans="1:5">
+      <c r="A2" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-    </row>
-    <row r="3" s="2" customFormat="1" ht="35.25" customHeight="1" spans="1:4">
-      <c r="A3" s="7" t="s">
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+    </row>
+    <row r="3" s="2" customFormat="1" ht="35.25" customHeight="1" spans="1:5">
+      <c r="A3" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-    </row>
-    <row r="4" s="1" customFormat="1" ht="24" customHeight="1" spans="1:4">
-      <c r="A4" s="8" t="s">
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+    </row>
+    <row r="4" s="1" customFormat="1" ht="24" customHeight="1" spans="1:5">
+      <c r="A4" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="D4" s="11" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" s="1" customFormat="1" ht="30.75" customHeight="1" spans="1:4">
-      <c r="A5" s="8"/>
-      <c r="B5" s="9"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-    </row>
-    <row r="6" s="1" customFormat="1" ht="49.5" customHeight="1" spans="1:4">
-      <c r="A6" s="11">
+      <c r="E4" s="12" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" s="1" customFormat="1" ht="30.75" customHeight="1" spans="1:5">
+      <c r="A5" s="9"/>
+      <c r="B5" s="10"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="10"/>
+    </row>
+    <row r="6" s="1" customFormat="1" ht="49.5" customHeight="1" spans="1:5">
+      <c r="A6" s="14">
         <v>1</v>
       </c>
-      <c r="B6" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="12" t="s">
+      <c r="B6" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="13">
+      <c r="C6" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="15"/>
+      <c r="E6" s="16">
         <v>0.2</v>
       </c>
     </row>
-    <row r="7" s="1" customFormat="1" ht="59.1" customHeight="1" spans="1:4">
-      <c r="A7" s="11">
+    <row r="7" s="1" customFormat="1" ht="59.1" customHeight="1" spans="1:5">
+      <c r="A7" s="14">
         <v>2</v>
       </c>
-      <c r="B7" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="12" t="s">
+      <c r="B7" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="13">
+      <c r="C7" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="15"/>
+      <c r="E7" s="16">
         <v>0.3</v>
       </c>
     </row>
-    <row r="8" s="1" customFormat="1" ht="49.5" customHeight="1" spans="1:4">
-      <c r="A8" s="11">
+    <row r="8" s="1" customFormat="1" ht="49.5" customHeight="1" spans="1:5">
+      <c r="A8" s="14">
         <v>3</v>
       </c>
-      <c r="B8" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="12" t="s">
+      <c r="B8" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="13">
+      <c r="C8" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="15"/>
+      <c r="E8" s="16">
         <v>0.3</v>
       </c>
     </row>
-    <row r="9" s="1" customFormat="1" ht="49.5" customHeight="1" spans="1:4">
-      <c r="A9" s="11">
+    <row r="9" s="1" customFormat="1" ht="49.5" customHeight="1" spans="1:5">
+      <c r="A9" s="14">
         <v>4</v>
       </c>
-      <c r="B9" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" s="12" t="s">
+      <c r="B9" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="13">
+      <c r="C9" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="15"/>
+      <c r="E9" s="16">
         <v>0.2</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A3:D3"/>
+  <mergeCells count="8">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="A3:E3"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="C4:C5"/>
     <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:E5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
